--- a/data/trans_camb/P1001-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,27</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>5,97</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,16</t>
+          <t>-2,54; 3,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,72</t>
+          <t>6,67; 12,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,2</t>
+          <t>3,82; 8,25</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>47,52%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 42,45</t>
+          <t>-19,83; 38,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,73; 111,05</t>
+          <t>43,44; 103,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,44; 77,49</t>
+          <t>28,34; 70,35</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,35</t>
+          <t>-0,41; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,18</t>
+          <t>-1,84; 2,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,8</t>
+          <t>-0,36; 2,27</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 110,99</t>
+          <t>-6,95; 89,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 53,46</t>
+          <t>-24,19; 40,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 60,19</t>
+          <t>-6,42; 48,31</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,39</t>
+          <t>-2,46; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,4</t>
+          <t>-1,28; 4,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,79</t>
+          <t>-0,99; 2,81</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,02%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 83,7</t>
+          <t>-45,44; 83,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 98,62</t>
+          <t>-18,88; 99,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 70,59</t>
+          <t>-17,27; 70,84</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,37</t>
+          <t>-1,92; 0,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,63</t>
+          <t>-0,57; 3,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,27</t>
+          <t>-0,83; 1,63</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 24,74</t>
+          <t>-28,94; 16,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,14; 41,68</t>
+          <t>-5,33; 33,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,35; 31,43</t>
+          <t>-9,23; 22,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1001-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,43</t>
+          <t>-0,93; 5,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,16</t>
+          <t>-4,98; 0,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,73</t>
+          <t>-2,65; 3,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,39</t>
+          <t>7,05; 13,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,33</t>
+          <t>5,49; 12,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,8</t>
+          <t>6,54; 12,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,03</t>
+          <t>4,79; 9,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,9</t>
+          <t>2,15; 6,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,25</t>
+          <t>3,79; 8,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 56,61</t>
+          <t>-7,73; 50,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 12,07</t>
+          <t>-39,05; 7,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 38,8</t>
+          <t>-21,27; 39,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,2; 107,38</t>
+          <t>46,02; 109,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 98,98</t>
+          <t>37,03; 99,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,44; 103,48</t>
+          <t>43,86; 101,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,18; 77,56</t>
+          <t>35,81; 80,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 58,88</t>
+          <t>15,47; 57,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,34; 70,35</t>
+          <t>28,28; 73,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,31</t>
+          <t>-0,4; 2,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,49</t>
+          <t>0,68; 3,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,73</t>
+          <t>-0,52; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,87</t>
+          <t>0,93; 4,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,39</t>
+          <t>-0,15; 3,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,46</t>
+          <t>-2,01; 2,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,95</t>
+          <t>0,76; 3,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,17</t>
+          <t>0,74; 3,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,27</t>
+          <t>-0,52; 2,18</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 80,33</t>
+          <t>-9,49; 91,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 117,05</t>
+          <t>12,84; 129,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 89,99</t>
+          <t>-11,9; 96,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 78,68</t>
+          <t>11,72; 78,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 57,12</t>
+          <t>-2,2; 58,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 40,23</t>
+          <t>-24,77; 41,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 63,42</t>
+          <t>12,01; 66,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 66,68</t>
+          <t>12,64; 67,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 48,31</t>
+          <t>-8,59; 44,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,77</t>
+          <t>-2,03; 3,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,43</t>
+          <t>-3,35; 1,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,4</t>
+          <t>-2,65; 2,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,75</t>
+          <t>-3,73; 2,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,31</t>
+          <t>-2,58; 3,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,43</t>
+          <t>-1,18; 4,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,22</t>
+          <t>-1,9; 2,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,54</t>
+          <t>-2,35; 1,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,81</t>
+          <t>-0,93; 2,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 122,43</t>
+          <t>-42,63; 132,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,12; 53,56</t>
+          <t>-63,07; 47,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 83,99</t>
+          <t>-48,88; 81,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 68,25</t>
+          <t>-50,75; 56,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 78,72</t>
+          <t>-35,22; 72,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 99,7</t>
+          <t>-15,83; 108,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 60,34</t>
+          <t>-34,53; 60,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 39,17</t>
+          <t>-39,46; 41,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 70,84</t>
+          <t>-16,02; 70,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,26</t>
+          <t>-0,25; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,26</t>
+          <t>-1,12; 1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,91</t>
+          <t>-1,75; 1,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,75</t>
+          <t>3,64; 6,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,26</t>
+          <t>1,1; 4,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,0</t>
+          <t>-0,79; 3,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,17</t>
+          <t>2,15; 4,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,44</t>
+          <t>0,51; 2,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,63</t>
+          <t>-0,67; 1,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 41,77</t>
+          <t>-3,97; 44,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 23,68</t>
+          <t>-16,9; 22,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 16,85</t>
+          <t>-26,78; 17,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,79; 76,43</t>
+          <t>35,62; 76,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,02; 48,58</t>
+          <t>10,13; 49,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 33,97</t>
+          <t>-7,9; 33,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,09; 56,9</t>
+          <t>26,52; 57,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,68; 33,6</t>
+          <t>5,94; 33,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 22,2</t>
+          <t>-8,09; 22,47</t>
         </is>
       </c>
     </row>
